--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Btc-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Btc-Erbb3.xlsx
@@ -546,34 +546,34 @@
         <v>0.745045223303102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.058393</v>
+        <v>0.2023976666666667</v>
       </c>
       <c r="N2">
-        <v>0.175179</v>
+        <v>0.6071930000000001</v>
       </c>
       <c r="O2">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="P2">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="Q2">
-        <v>0.01876246893766667</v>
+        <v>0.06503313640144445</v>
       </c>
       <c r="R2">
-        <v>0.168862220439</v>
+        <v>0.5852982276130001</v>
       </c>
       <c r="S2">
-        <v>0.008086519877130841</v>
+        <v>0.02729823683105628</v>
       </c>
       <c r="T2">
-        <v>0.008086519877130841</v>
+        <v>0.02729823683105628</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>1.432105</v>
       </c>
       <c r="O3">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188978</v>
       </c>
       <c r="P3">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188979</v>
       </c>
       <c r="Q3">
         <v>0.1533849695338889</v>
@@ -632,10 +632,10 @@
         <v>1.380464725805</v>
       </c>
       <c r="S3">
-        <v>0.0661080697380306</v>
+        <v>0.06438470380412792</v>
       </c>
       <c r="T3">
-        <v>0.0661080697380306</v>
+        <v>0.06438470380412793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>14.532697</v>
       </c>
       <c r="O4">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="P4">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="Q4">
         <v>1.556518053208555</v>
@@ -694,10 +694,10 @@
         <v>14.008662478877</v>
       </c>
       <c r="S4">
-        <v>0.6708506336879405</v>
+        <v>0.6533622826679178</v>
       </c>
       <c r="T4">
-        <v>0.6708506336879405</v>
+        <v>0.6533622826679178</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,34 +732,34 @@
         <v>0.254954776696898</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.058393</v>
+        <v>0.2023976666666667</v>
       </c>
       <c r="N5">
-        <v>0.175179</v>
+        <v>0.6071930000000001</v>
       </c>
       <c r="O5">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="P5">
-        <v>0.01085373024912483</v>
+        <v>0.03663970451354832</v>
       </c>
       <c r="Q5">
-        <v>0.006420524457666667</v>
+        <v>0.02225436557477778</v>
       </c>
       <c r="R5">
-        <v>0.057784720119</v>
+        <v>0.200289290173</v>
       </c>
       <c r="S5">
-        <v>0.002767210371993988</v>
+        <v>0.009341467682492036</v>
       </c>
       <c r="T5">
-        <v>0.002767210371993988</v>
+        <v>0.009341467682492036</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -806,10 +806,10 @@
         <v>1.432105</v>
       </c>
       <c r="O6">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188978</v>
       </c>
       <c r="P6">
-        <v>0.08873027793527143</v>
+        <v>0.08641717548188979</v>
       </c>
       <c r="Q6">
         <v>0.05248839860055556</v>
@@ -818,10 +818,10 @@
         <v>0.472395587405</v>
       </c>
       <c r="S6">
-        <v>0.02262220819724082</v>
+        <v>0.02203247167776185</v>
       </c>
       <c r="T6">
-        <v>0.02262220819724082</v>
+        <v>0.02203247167776186</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,10 +868,10 @@
         <v>14.532697</v>
       </c>
       <c r="O7">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="P7">
-        <v>0.9004159918156037</v>
+        <v>0.876943120004562</v>
       </c>
       <c r="Q7">
         <v>0.5326411072352223</v>
@@ -880,10 +880,10 @@
         <v>4.793769965117</v>
       </c>
       <c r="S7">
-        <v>0.2295653581276632</v>
+        <v>0.2235808373366441</v>
       </c>
       <c r="T7">
-        <v>0.2295653581276632</v>
+        <v>0.2235808373366441</v>
       </c>
     </row>
   </sheetData>
